--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Desktop\UMich\Class Files\9 2024 Winter\EECS 430\Project\eecs430-phased-array-altium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Desktop\UMich\Class Files\9 2024 Winter\EECS 430\Project\eecs430-phased-array\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C54C4D1-3289-43F8-A791-282B10571893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A06986-3835-4B45-87A8-CD437D529471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,78 +36,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>PN</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="81">
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Line Price</t>
-  </si>
-  <si>
-    <t>Power Splitter</t>
-  </si>
-  <si>
-    <t>Phase Shiter</t>
-  </si>
-  <si>
-    <t>Low power switch</t>
-  </si>
-  <si>
-    <t>High power switch</t>
-  </si>
-  <si>
-    <t>High power amplifier</t>
-  </si>
-  <si>
-    <t>low power amplifier</t>
-  </si>
-  <si>
-    <t>ADRF5019</t>
-  </si>
-  <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/ADRF5019BCPZN/10659106</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/HMC7357LP5GE/5360005</t>
-  </si>
-  <si>
-    <t>HMC7357LP5GE</t>
-  </si>
-  <si>
-    <t>https://www.mouser.com/ProductDetail/Analog-Devices/HMC1133LP5E?qs=ILgNtqsyH23EljwehSgFjw%3D%3D</t>
-  </si>
-  <si>
-    <t>HMC1133LP5E</t>
-  </si>
-  <si>
-    <t>Alternative</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/macom-technology-solutions/MAPS-010165-TR0500/4429764</t>
-  </si>
-  <si>
-    <t>LNA</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/en/products/detail/mini-circuits/PMA3-63GLN/13927358</t>
-  </si>
-  <si>
     <t>PMA3-63GLN+</t>
   </si>
   <si>
-    <t>Total cost</t>
+    <t>Ceramic Capacitor 0805</t>
+  </si>
+  <si>
+    <t>CAP CER 50V X7R 0805</t>
+  </si>
+  <si>
+    <t>C1, C3, C19</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>CL21B105KBFNNNG</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor 0603</t>
+  </si>
+  <si>
+    <t>CAP CER 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>C2, C4, C20</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
+  </si>
+  <si>
+    <t>CL31A106KBHNNNE</t>
+  </si>
+  <si>
+    <t>10 µF ±10% 50V Ceramic Capacitor X5R 1206 (3216 Metric)</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>GRM1555C1H101JA01</t>
+  </si>
+  <si>
+    <t>100 pF ±5% 50V Ceramic Capacitor C0G, NP0 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>C6, C13.1, C13.2, C14.1, C14.2, C17.1, C17.2, C18.1, C18.2</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM1555C1H101JA01D</t>
+  </si>
+  <si>
+    <t>GRM1555C1H220JA01</t>
+  </si>
+  <si>
+    <t>22 pF ±5% 50V Ceramic Capacitor C0G, NP0 0402 (1005 Metric)</t>
+  </si>
+  <si>
+    <t>C7, C8, C15, C16</t>
+  </si>
+  <si>
+    <t>GRM1555C1H220JA01D</t>
+  </si>
+  <si>
+    <t>TAJA225K016TNJ</t>
+  </si>
+  <si>
+    <t>2.2 µF Molded Tantalum Capacitors 16 V 1206 (3216 Metric) 6.5Ohm @ 100kHz</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>Kyocera AVX</t>
+  </si>
+  <si>
+    <t>GRM188R72E331KW07D</t>
+  </si>
+  <si>
+    <t>330 pF ±10% 250V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>C10, C11, C12</t>
+  </si>
+  <si>
+    <t>APG1005CGC-T</t>
+  </si>
+  <si>
+    <t>LED GREEN CLEAR CHIP SMD</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4</t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>SMA Connector Jack, Female Socket 50 Ohms Board Edge, End Launch Solder</t>
+  </si>
+  <si>
+    <t>J1, J2</t>
+  </si>
+  <si>
+    <t>2 Position Terminal Block Header, Male Pins, Shrouded (4 Side) 0.098" (2.50mm) Vertical Through Hole</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Phoenix Contact</t>
+  </si>
+  <si>
+    <t>Adafruit_1993</t>
+  </si>
+  <si>
+    <t>2x20 pin Male IDC Box Header - Raspberry Pi A+/B+/Pi 2/Pi 3/Pi 4</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>3 Position Terminal Block Header, Male Pins, Shrouded (4 Side) 0.098" (2.50mm) Vertical Through Hole</t>
+  </si>
+  <si>
+    <t>J5, J6</t>
+  </si>
+  <si>
+    <t>LQG15HS10NJ02D</t>
+  </si>
+  <si>
+    <t>Multilayer type RF Inductor 10nH ±5% 0.26Ω 500mA 0402</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>RC0603FR-072K2L</t>
+  </si>
+  <si>
+    <t>Thick Film Resistor, 2.2 KOhm, 100 mW, 50 V, +/- 1%, -55 to 155 degC, 2-Pin SMD (0603), RoHS, Tape and Reel</t>
+  </si>
+  <si>
+    <t>R1, R5</t>
+  </si>
+  <si>
+    <t>R2, R3</t>
+  </si>
+  <si>
+    <t>R4, R6</t>
+  </si>
+  <si>
+    <t>R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>CL-SB-12C-01</t>
+  </si>
+  <si>
+    <t>Slide Switch SPDT Through Hole</t>
+  </si>
+  <si>
+    <t>SW1, SW2</t>
+  </si>
+  <si>
+    <t>Nidec Copal</t>
+  </si>
+  <si>
+    <t>Red PC Test Point, Miniature Phosphor Bronze Silver Plating Through Hole Mounting Type</t>
+  </si>
+  <si>
+    <t>TP1.1, TP1.2, TP2.1, TP2.2, TP3.1, TP3.2, TP4.1, TP4.2, TP5.1, TP5.2, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>RF Amplifier IC LTE, Radar, SATCOM, UMTS, WiFi, WiMAX, WLAN 1.8GHz ~ 6GHz 12-MCLP (3x3)</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>HMC407MS8GETR</t>
+  </si>
+  <si>
+    <t>RF Amplifier IC General Purpose 5GHz ~ 7GHz 8-MSOP-EP</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>MAPS-010145-TR0500</t>
+  </si>
+  <si>
+    <t>Phase Detectors / Shifters 3.5-6.0GHz 4-Bit Step 22.5 deg.</t>
+  </si>
+  <si>
+    <t>U3.1, U3.2, U5.1, U5.2</t>
+  </si>
+  <si>
+    <t>TE Connectivity MA-COM</t>
+  </si>
+  <si>
+    <t>PE42423B-Z</t>
+  </si>
+  <si>
+    <t>RF Switch IC 802.11a/b/g/n/ac SPDT 6 GHz 50Ohm 16-QFN (3x3)</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>pSemi</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>"Unit Cost"</t>
+  </si>
+  <si>
+    <t>"Line Cost"</t>
   </si>
 </sst>
 </file>
@@ -155,11 +326,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -441,235 +613,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="3" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="3" width="33.109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="E3" s="4">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2*D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1">
-        <v>126.57</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F16" si="0">E3*D3</f>
-        <v>506.28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2">
-        <v>101.91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
+      <c r="J3">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4">
+        <v>4.3E-3</v>
+      </c>
+      <c r="K4">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="K5">
+        <v>148.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
-        <v>14.51</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>58.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8">
+        <v>0.107</v>
+      </c>
+      <c r="K8">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="J9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
-        <v>14.51</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>58.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10">
+        <v>0.39</v>
+      </c>
+      <c r="K10">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>732511153</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>1881558</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>1881558</v>
+      </c>
+      <c r="J12">
+        <v>0.89</v>
+      </c>
+      <c r="K12">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1881561</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="K15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
-        <v>88.92</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>355.68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="K21">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22">
+        <v>5000</v>
+      </c>
+      <c r="J22">
+        <v>0.16</v>
+      </c>
+      <c r="K22">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="K24">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="3">
-        <f>SUM(F2:F16)</f>
-        <v>999.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25">
+        <v>38.29</v>
+      </c>
+      <c r="K25">
+        <v>153.16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26">
+        <v>2.35</v>
+      </c>
+      <c r="K26">
+        <v>2.35</v>
       </c>
     </row>
   </sheetData>
